--- a/BiometricoWeb/pages/plantilla/PlantillaCompensatorio.xlsx
+++ b/BiometricoWeb/pages/plantilla/PlantillaCompensatorio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wpadilla\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wpadilla\source\repos\danielhn84\Infatlan_Biometrico\BiometricoWeb\pages\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98823F34-BD65-4F98-A4F8-AA9768732CF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2494D3E7-2443-42F8-B214-A89EFC272944}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{61B91428-423A-4BF6-90A5-A08208D34E28}"/>
   </bookViews>
@@ -31,12 +31,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ID_EMPLEADO</t>
+    <t>FECHA</t>
   </si>
   <si>
-    <t>CANTIDAD_DIAS</t>
+    <t>CANTIDAD_HORAS</t>
+  </si>
+  <si>
+    <t>ID_EMPLEADO_SAP</t>
   </si>
 </sst>
 </file>
@@ -100,9 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,23 +424,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DED1F10-BAD7-4E6C-90AF-8E3C59B9A638}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
